--- a/splendor/card.xlsx
+++ b/splendor/card.xlsx
@@ -27,10 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="13">
   <si>
     <t>onyx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sappire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,12 +66,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token_sappire</t>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
+    <t>token_sapphire</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sapphire</t>
   </si>
 </sst>
 </file>
@@ -422,7 +421,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -440,28 +439,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -608,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -628,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -645,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -662,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -676,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -690,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -701,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -712,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -735,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -755,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -772,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -789,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -803,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -817,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -828,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -839,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -862,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -882,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -899,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -916,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -930,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -944,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -955,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -966,7 +965,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -989,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -1009,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -1026,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -1043,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1057,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -1071,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -1082,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -1093,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="2">
         <v>1</v>
@@ -1218,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
@@ -1238,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -1255,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H50" s="2">
         <v>2</v>
@@ -1275,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H51" s="2">
         <v>2</v>
@@ -1289,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H52" s="2">
         <v>2</v>
@@ -1303,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H53" s="2">
         <v>3</v>
@@ -1323,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -1343,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -1363,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
@@ -1380,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
         <v>2</v>
@@ -1394,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
@@ -1408,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="2">
         <v>3</v>
@@ -1428,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
@@ -1448,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
@@ -1468,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
@@ -1485,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -1499,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" s="2">
         <v>2</v>
@@ -1513,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" s="2">
         <v>3</v>
@@ -1533,7 +1532,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
@@ -1553,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
@@ -1573,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" s="2">
         <v>2</v>
@@ -1590,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69" s="2">
         <v>2</v>
@@ -1604,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70" s="2">
         <v>2</v>
@@ -1618,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="2">
         <v>3</v>
@@ -1715,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H76" s="2">
         <v>3</v>
@@ -1729,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H77" s="2">
         <v>4</v>
@@ -1749,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H78" s="2">
         <v>4</v>
@@ -1766,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H79" s="2">
         <v>5</v>
@@ -1789,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="2">
         <v>3</v>
@@ -1803,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="2">
         <v>4</v>
@@ -1823,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="2">
         <v>4</v>
@@ -1840,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="2">
         <v>5</v>
@@ -1863,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H84" s="2">
         <v>3</v>
@@ -1877,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" s="2">
         <v>4</v>
@@ -1897,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86" s="2">
         <v>4</v>
@@ -1914,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" s="2">
         <v>5</v>
@@ -1937,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" s="2">
         <v>3</v>
@@ -1951,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H89" s="2">
         <v>4</v>
@@ -1971,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H90" s="2">
         <v>4</v>
@@ -1988,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H91" s="2">
         <v>5</v>
